--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4ec0dde0dc712bf/Documents/GitHub/BuckLinReg_5V/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_F25DC773A252ABDACC1048A3E99C55125BDE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8BD5670C-1F15-46B7-808D-444388086575}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_F25DC773A252ABDACC1048A3E99C55125BDE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B7FE6A5-BDA6-4499-9AE6-02ABF5D1424B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>156120RS75000</t>
   </si>
@@ -63,12 +63,6 @@
     <t>IHLP4040DZER6R8M8A</t>
   </si>
   <si>
-    <t>LMV358IDRG4</t>
-  </si>
-  <si>
-    <t>PDZ3.0B,115</t>
-  </si>
-  <si>
     <t>PMBT2222</t>
   </si>
   <si>
@@ -78,18 +72,12 @@
     <t>RMCF1206FT3K60</t>
   </si>
   <si>
-    <t>RMCF1206JG100K</t>
-  </si>
-  <si>
     <t>RMCF1206JT10K0</t>
   </si>
   <si>
     <t>RMCF1206JT12K0</t>
   </si>
   <si>
-    <t>RMCF1206JT1K00</t>
-  </si>
-  <si>
     <t>RMCF1206JT33K0</t>
   </si>
   <si>
@@ -159,12 +147,6 @@
     <t>541-2276-1-ND</t>
   </si>
   <si>
-    <t>296-44324-1-ND</t>
-  </si>
-  <si>
-    <t>1727-2256-1-ND</t>
-  </si>
-  <si>
     <t>1727-1135-1-ND</t>
   </si>
   <si>
@@ -189,18 +171,12 @@
     <t>296-53568-1-ND</t>
   </si>
   <si>
-    <t>RMCF1206JG100KCT-ND</t>
-  </si>
-  <si>
     <t>RMCF1206JT10K0CT-ND</t>
   </si>
   <si>
     <t>RMCF1206JT12K0CT-ND</t>
   </si>
   <si>
-    <t>RMCF1206JT1K00CT-ND</t>
-  </si>
-  <si>
     <t>RMCF1206JT33K0CT-ND</t>
   </si>
   <si>
@@ -232,6 +208,24 @@
   </si>
   <si>
     <t>SI4435FDY-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t>BZX84-C2V4,215</t>
+  </si>
+  <si>
+    <t>INA180A3IDBVR</t>
+  </si>
+  <si>
+    <t>TLV7011DBVR</t>
+  </si>
+  <si>
+    <t>296-47654-1-ND‎</t>
+  </si>
+  <si>
+    <t>1727-4249-1-ND‎</t>
+  </si>
+  <si>
+    <t>296-TLV7011DBVRCT-ND‎</t>
   </si>
 </sst>
 </file>
@@ -566,27 +560,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,18 +654,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -679,43 +673,43 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -723,131 +717,131 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -855,107 +849,99 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="https://www.digikey.com/product-detail/en/CL32B106KBJNNWE/1276-3388-1-ND/3891474" xr:uid="{E33A3203-CD2F-4C4A-A826-D79CDF020DCE}"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.digikey.com/product-detail/en/CL32B106KBJNNWE/1276-3388-1-ND/3891474" xr:uid="{E33A3203-CD2F-4C4A-A826-D79CDF020DCE}"/>
+    <hyperlink ref="B17" r:id="rId2" display="https://www.digikey.com/product-detail/en/INA180A3IDBVR/296-47654-1-ND/8133023/?itemSeq=360296412" xr:uid="{860C1DE4-CF1E-4BA0-9BB9-858C9FB057DE}"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://www.digikey.com/product-detail/en/BZX84-C2V4%2c215/1727-4249-1-ND/2122205/?itemSeq=360465044" xr:uid="{163BC68F-3701-447B-87E5-C63982F877A7}"/>
+    <hyperlink ref="B31" r:id="rId4" display="https://www.digikey.com/product-detail/en/TLV7011DBVR/296-TLV7011DBVRCT-ND/10435217/?itemSeq=360296418" xr:uid="{53AA5E12-50B9-415B-B9E9-D6C44804C2DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
